--- a/matlab/logDataProcess/sri-ipb1-43.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>reactor</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>082417</t>
+  </si>
+  <si>
+    <t>090617</t>
+  </si>
+  <si>
+    <t>10us-80ns_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1126,54 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>189</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>

--- a/matlab/logDataProcess/sri-ipb1-43.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-43.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>reactor</t>
   </si>
@@ -64,9 +64,6 @@
     <t>seq</t>
   </si>
   <si>
-    <t>h2</t>
-  </si>
-  <si>
     <t>coreL</t>
   </si>
   <si>
@@ -76,28 +73,19 @@
     <t>10us-80ns</t>
   </si>
   <si>
-    <t>sri-ipb1-43</t>
-  </si>
-  <si>
-    <t>2017-08-15-v189-core-43</t>
-  </si>
-  <si>
-    <t>081617</t>
-  </si>
-  <si>
-    <t>Seq_10us-80ns_H2_day-00.csv</t>
-  </si>
-  <si>
-    <t>10us-80ns-823_day-01.csv</t>
-  </si>
-  <si>
-    <t>082417</t>
-  </si>
-  <si>
-    <t>090617</t>
-  </si>
-  <si>
-    <t>10us-80ns_day-01.csv</t>
+    <t>sri-ipb1-54</t>
+  </si>
+  <si>
+    <t>101917</t>
+  </si>
+  <si>
+    <t>1pb1-5_Seq_10us-80ns_He_day-1.csv</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>2017-08-15-v1812-BandHtr_core-54b</t>
   </si>
 </sst>
 </file>
@@ -945,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1004,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1027,22 +1015,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1051,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2">
-        <v>17.600000000000001</v>
+        <v>18.125</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -1069,111 +1057,17 @@
         <v>189</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O3" s="2">
-        <v>189</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O4" s="2">
-        <v>189</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -1184,12 +1078,6 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
